--- a/expressApiServer/src/main/java/com/yugyg/express/impl/juhe.xlsx
+++ b/expressApiServer/src/main/java/com/yugyg/express/impl/juhe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>anxindakuaixi</t>
   </si>
@@ -22,64 +22,238 @@
     <t>axd</t>
   </si>
   <si>
+    <t>安信达快递</t>
+  </si>
+  <si>
     <t>youzhengguonei</t>
   </si>
   <si>
     <t>yzgn</t>
   </si>
   <si>
+    <t>邮政国内（挂号信）</t>
+  </si>
+  <si>
     <t>chuanxiwuliu</t>
   </si>
   <si>
     <t>cxwl</t>
   </si>
   <si>
+    <t>传喜物流</t>
+  </si>
+  <si>
     <t>shunfeng</t>
   </si>
   <si>
     <t>sf</t>
   </si>
   <si>
+    <t>顺丰</t>
+  </si>
+  <si>
     <t>tnt</t>
   </si>
   <si>
+    <t>TNT</t>
+  </si>
+  <si>
     <t>tiantian</t>
   </si>
   <si>
     <t>tt</t>
   </si>
   <si>
+    <t>天天</t>
+  </si>
+  <si>
     <t>huitongkuaidi</t>
   </si>
   <si>
     <t>ht</t>
   </si>
   <si>
+    <t>汇通</t>
+  </si>
+  <si>
     <t>shentong</t>
   </si>
   <si>
     <t>sto</t>
   </si>
   <si>
+    <t>申通</t>
+  </si>
+  <si>
     <t>yuantong</t>
   </si>
   <si>
     <t>yt</t>
   </si>
   <si>
+    <t>圆通</t>
+  </si>
+  <si>
     <t>zhongtong</t>
   </si>
   <si>
     <t>zto</t>
   </si>
   <si>
+    <t>中通</t>
+  </si>
+  <si>
     <t>jd</t>
   </si>
   <si>
+    <t>京东快递</t>
+  </si>
+  <si>
     <t>yunda</t>
   </si>
   <si>
     <t>yd</t>
+  </si>
+  <si>
+    <t>韵达</t>
+  </si>
+  <si>
+    <t>ems</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>quanfengkuaidi</t>
+  </si>
+  <si>
+    <t>qf</t>
+  </si>
+  <si>
+    <t>全峰</t>
+  </si>
+  <si>
+    <t>debangwuliu</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>德邦</t>
+  </si>
+  <si>
+    <t>zhaijisong</t>
+  </si>
+  <si>
+    <t>zjs</t>
+  </si>
+  <si>
+    <t>宅急送</t>
+  </si>
+  <si>
+    <t>emsguoji</t>
+  </si>
+  <si>
+    <t>emsg</t>
+  </si>
+  <si>
+    <t>EMS国际</t>
+  </si>
+  <si>
+    <t>fedex</t>
+  </si>
+  <si>
+    <t>Fedex国际</t>
+  </si>
+  <si>
+    <t>ups</t>
+  </si>
+  <si>
+    <t>UPS国际快递</t>
+  </si>
+  <si>
+    <t>zhongtiewuliu</t>
+  </si>
+  <si>
+    <t>ztky</t>
+  </si>
+  <si>
+    <t>中铁快运</t>
+  </si>
+  <si>
+    <t>jiajiwuliu</t>
+  </si>
+  <si>
+    <t>jiaji</t>
+  </si>
+  <si>
+    <t>佳吉快运</t>
+  </si>
+  <si>
+    <t>suer</t>
+  </si>
+  <si>
+    <t>速尔快递</t>
+  </si>
+  <si>
+    <t>xinfengwuliu</t>
+  </si>
+  <si>
+    <t>xfwl</t>
+  </si>
+  <si>
+    <t>信丰物流</t>
+  </si>
+  <si>
+    <t>youshuwuliu</t>
+  </si>
+  <si>
+    <t>yousu</t>
+  </si>
+  <si>
+    <t>优速快递</t>
+  </si>
+  <si>
+    <t>zhongyouwuliu</t>
+  </si>
+  <si>
+    <t>zhongyou</t>
+  </si>
+  <si>
+    <t>中邮物流</t>
+  </si>
+  <si>
+    <t>kuaijiesudi</t>
+  </si>
+  <si>
+    <t>kuaijie</t>
+  </si>
+  <si>
+    <t>快捷速递</t>
+  </si>
+  <si>
+    <t>tiandihuayu</t>
+  </si>
+  <si>
+    <t>tdhy</t>
+  </si>
+  <si>
+    <t>天地华宇</t>
+  </si>
+  <si>
+    <t>dhl</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>annengwuliu</t>
+  </si>
+  <si>
+    <t>ane66</t>
+  </si>
+  <si>
+    <t>安能快递</t>
   </si>
 </sst>
 </file>
@@ -87,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -124,39 +298,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +336,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -178,60 +352,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +395,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -260,36 +434,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,18 +476,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -326,79 +524,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,31 +608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,8 +655,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,19 +688,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +708,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,130 +742,130 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,112 +1192,336 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="33.125" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
